--- a/report.xlsx
+++ b/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
   <si>
     <t>Sl No</t>
   </si>
@@ -37,54 +37,102 @@
     <t>Ass.Value</t>
   </si>
   <si>
+    <t>IGST Price (18%)</t>
+  </si>
+  <si>
     <t>CGST Price (9%)</t>
   </si>
   <si>
     <t>SGST Price (9%)</t>
   </si>
   <si>
-    <t>IGST Price (18%)</t>
-  </si>
-  <si>
     <t>Invoice Value</t>
   </si>
   <si>
+    <t>Round Off</t>
+  </si>
+  <si>
     <t>HSN/SSC</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
+    <t>SLN  Technologies  Private  Limited</t>
+  </si>
+  <si>
+    <t>Hi-Tech Investment Castings Private Limited</t>
+  </si>
+  <si>
+    <t>SIDERFORGEROSSI INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>AMSTEEL Castings Private Limited</t>
+  </si>
+  <si>
     <t>SAMUDRA INDUSTRIES PVT LIMITED</t>
   </si>
   <si>
-    <t>AMSTEEL Castings Private Limited</t>
-  </si>
-  <si>
-    <t>SIDERFORGEROSSI INDIA PVT LTD</t>
-  </si>
-  <si>
-    <t>Hi-Tech Investment Castings Private Limited</t>
-  </si>
-  <si>
     <t xml:space="preserve"> iCAM Solution Pvt. Ltd.</t>
   </si>
   <si>
+    <t>Macro Precision Components</t>
+  </si>
+  <si>
+    <t>Pinnacle Engineering</t>
+  </si>
+  <si>
+    <t>29AADCS1906P1ZX</t>
+  </si>
+  <si>
+    <t>24AAACH7342H1ZS</t>
+  </si>
+  <si>
+    <t>29AAECM8284F1Z2</t>
+  </si>
+  <si>
+    <t>33AAACA5352Q1ZJ</t>
+  </si>
+  <si>
     <t>33AAYCS6379R1ZY</t>
   </si>
   <si>
-    <t>33AAACA5352Q1ZJ</t>
-  </si>
-  <si>
-    <t>29AAECM8284F1Z2</t>
-  </si>
-  <si>
-    <t>24AAACH7342H1ZS</t>
-  </si>
-  <si>
     <t>29AAACI8461Q1ZS</t>
   </si>
   <si>
+    <t>29ADLPR6631A1ZG</t>
+  </si>
+  <si>
+    <t>29AQCPN6551B1ZX</t>
+  </si>
+  <si>
+    <t>001/2023-24</t>
+  </si>
+  <si>
+    <t>002/2023-24</t>
+  </si>
+  <si>
+    <t>003/2023-24</t>
+  </si>
+  <si>
+    <t>004/2023-24</t>
+  </si>
+  <si>
+    <t>006/2023-24</t>
+  </si>
+  <si>
+    <t>007/2023-24</t>
+  </si>
+  <si>
+    <t>008/2023-24</t>
+  </si>
+  <si>
+    <t>009/2023-24</t>
+  </si>
+  <si>
+    <t>010/2023-24</t>
+  </si>
+  <si>
     <t>011/2023-24</t>
   </si>
   <si>
@@ -127,6 +175,183 @@
     <t>024/2023-24</t>
   </si>
   <si>
+    <t>025/2023-24</t>
+  </si>
+  <si>
+    <t>026/2023-24</t>
+  </si>
+  <si>
+    <t>027/2023-24</t>
+  </si>
+  <si>
+    <t>028/2023-24</t>
+  </si>
+  <si>
+    <t>029/2023-24</t>
+  </si>
+  <si>
+    <t>030/2023-24</t>
+  </si>
+  <si>
+    <t>031/2023-24</t>
+  </si>
+  <si>
+    <t>032/2023-24</t>
+  </si>
+  <si>
+    <t>033/2023-24</t>
+  </si>
+  <si>
+    <t>034/2023-24</t>
+  </si>
+  <si>
+    <t>035/2023-24</t>
+  </si>
+  <si>
+    <t>036/2023-24</t>
+  </si>
+  <si>
+    <t>037/2023-24</t>
+  </si>
+  <si>
+    <t>038/2023-24</t>
+  </si>
+  <si>
+    <t>039/2023-24</t>
+  </si>
+  <si>
+    <t>040/2023-24</t>
+  </si>
+  <si>
+    <t>041/2023-24</t>
+  </si>
+  <si>
+    <t>042/2023-24</t>
+  </si>
+  <si>
+    <t>043/2023-24</t>
+  </si>
+  <si>
+    <t>044/2023-24</t>
+  </si>
+  <si>
+    <t>045/2023-24</t>
+  </si>
+  <si>
+    <t>046/2023-24</t>
+  </si>
+  <si>
+    <t>047/2023-24</t>
+  </si>
+  <si>
+    <t>048/2023-24</t>
+  </si>
+  <si>
+    <t>049/2023-24</t>
+  </si>
+  <si>
+    <t>050/2023-24</t>
+  </si>
+  <si>
+    <t>051/2023-24</t>
+  </si>
+  <si>
+    <t>052/2023-24</t>
+  </si>
+  <si>
+    <t>053/2023-24</t>
+  </si>
+  <si>
+    <t>054/2023-24</t>
+  </si>
+  <si>
+    <t>055/2023-24</t>
+  </si>
+  <si>
+    <t>056/2023-24</t>
+  </si>
+  <si>
+    <t>057/2023-24</t>
+  </si>
+  <si>
+    <t>058/2023-24</t>
+  </si>
+  <si>
+    <t>059/2023-24</t>
+  </si>
+  <si>
+    <t>060/2023-24</t>
+  </si>
+  <si>
+    <t>061/2023-24</t>
+  </si>
+  <si>
+    <t>062/2023-24</t>
+  </si>
+  <si>
+    <t>063/2023-24</t>
+  </si>
+  <si>
+    <t>064/2023-24</t>
+  </si>
+  <si>
+    <t>065/2023-24</t>
+  </si>
+  <si>
+    <t>066/2023-24</t>
+  </si>
+  <si>
+    <t>067/2023-24</t>
+  </si>
+  <si>
+    <t>068/2023-24</t>
+  </si>
+  <si>
+    <t>069/2023-24</t>
+  </si>
+  <si>
+    <t>070/2023-24</t>
+  </si>
+  <si>
+    <t>071/2023-24</t>
+  </si>
+  <si>
+    <t>072/2023-24</t>
+  </si>
+  <si>
+    <t>073/2023-24</t>
+  </si>
+  <si>
+    <t>074/2023-24</t>
+  </si>
+  <si>
+    <t>075/2023-24</t>
+  </si>
+  <si>
+    <t>06-04-2023</t>
+  </si>
+  <si>
+    <t>08-04-2023</t>
+  </si>
+  <si>
+    <t>11-04-2023</t>
+  </si>
+  <si>
+    <t>13-04-2023</t>
+  </si>
+  <si>
+    <t>17-04-2023</t>
+  </si>
+  <si>
+    <t>20-04-2023</t>
+  </si>
+  <si>
+    <t>22-04-2023</t>
+  </si>
+  <si>
+    <t>29-04-2023</t>
+  </si>
+  <si>
     <t>04-05-2023</t>
   </si>
   <si>
@@ -160,136 +385,142 @@
     <t>31-05-2023</t>
   </si>
   <si>
-    <t>113832.00</t>
-  </si>
-  <si>
-    <t>360000.00</t>
-  </si>
-  <si>
-    <t>33000.00</t>
-  </si>
-  <si>
-    <t>32395.00</t>
-  </si>
-  <si>
-    <t>108640.00</t>
-  </si>
-  <si>
-    <t>45750.00</t>
-  </si>
-  <si>
-    <t>120000.00</t>
-  </si>
-  <si>
-    <t>10230.00</t>
-  </si>
-  <si>
-    <t>164140.00</t>
-  </si>
-  <si>
-    <t>73840.00</t>
-  </si>
-  <si>
-    <t>33456.00</t>
-  </si>
-  <si>
-    <t>159120.00</t>
-  </si>
-  <si>
-    <t>115200.00</t>
-  </si>
-  <si>
-    <t>1729603.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2970.00</t>
-  </si>
-  <si>
-    <t>4117.50</t>
-  </si>
-  <si>
-    <t>10800.00</t>
-  </si>
-  <si>
-    <t>3011.04</t>
-  </si>
-  <si>
-    <t>10368.00</t>
-  </si>
-  <si>
-    <t>31266.54</t>
-  </si>
-  <si>
-    <t>20489.76</t>
-  </si>
-  <si>
-    <t>64800.00</t>
-  </si>
-  <si>
-    <t>5831.10</t>
-  </si>
-  <si>
-    <t>19555.20</t>
-  </si>
-  <si>
-    <t>1841.40</t>
-  </si>
-  <si>
-    <t>29545.20</t>
-  </si>
-  <si>
-    <t>13291.20</t>
-  </si>
-  <si>
-    <t>28641.60</t>
-  </si>
-  <si>
-    <t>248795.46</t>
-  </si>
-  <si>
-    <t>134321.76</t>
-  </si>
-  <si>
-    <t>424800.00</t>
-  </si>
-  <si>
-    <t>38940.00</t>
-  </si>
-  <si>
-    <t>38226.10</t>
-  </si>
-  <si>
-    <t>128195.20</t>
-  </si>
-  <si>
-    <t>53985.00</t>
-  </si>
-  <si>
-    <t>141600.00</t>
-  </si>
-  <si>
-    <t>12071.40</t>
-  </si>
-  <si>
-    <t>193685.20</t>
-  </si>
-  <si>
-    <t>87131.20</t>
-  </si>
-  <si>
-    <t>39478.08</t>
-  </si>
-  <si>
-    <t>187761.60</t>
-  </si>
-  <si>
-    <t>135936.00</t>
-  </si>
-  <si>
-    <t>2040931.54</t>
+    <t>05-06-2023</t>
+  </si>
+  <si>
+    <t>07-06-2023</t>
+  </si>
+  <si>
+    <t>12-06-2023</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t>19-06-2023</t>
+  </si>
+  <si>
+    <t>22-06-2023</t>
+  </si>
+  <si>
+    <t>26-06-2023</t>
+  </si>
+  <si>
+    <t>29-06-2023</t>
+  </si>
+  <si>
+    <t>01-07-2023</t>
+  </si>
+  <si>
+    <t>07-07-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07-07-2023</t>
+  </si>
+  <si>
+    <t>11-07-2023</t>
+  </si>
+  <si>
+    <t>13-07-2023</t>
+  </si>
+  <si>
+    <t>14-07-2023</t>
+  </si>
+  <si>
+    <t>15-07-2023</t>
+  </si>
+  <si>
+    <t>21-07-2023</t>
+  </si>
+  <si>
+    <t>26-07-2023</t>
+  </si>
+  <si>
+    <t>28-07-2023</t>
+  </si>
+  <si>
+    <t>31-07-2023</t>
+  </si>
+  <si>
+    <t>01-08-2023</t>
+  </si>
+  <si>
+    <t>02-08-2023</t>
+  </si>
+  <si>
+    <t>04-08-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>16-08-2023</t>
+  </si>
+  <si>
+    <t>18-08-2023</t>
+  </si>
+  <si>
+    <t>21-08-2023</t>
+  </si>
+  <si>
+    <t>22-08-2023</t>
+  </si>
+  <si>
+    <t>23-08-2023</t>
+  </si>
+  <si>
+    <t>24-08-2023</t>
+  </si>
+  <si>
+    <t>26-08-2023</t>
+  </si>
+  <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
+    <t>02-09-2023</t>
+  </si>
+  <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
+    <t>08-09-2023</t>
+  </si>
+  <si>
+    <t>13-09-2023</t>
+  </si>
+  <si>
+    <t>15-09-2023</t>
+  </si>
+  <si>
+    <t>22-09-2023</t>
+  </si>
+  <si>
+    <t>23-09-2023</t>
+  </si>
+  <si>
+    <t>30-09-2023</t>
+  </si>
+  <si>
+    <t>04-10-2023</t>
+  </si>
+  <si>
+    <t>06-10-2023</t>
+  </si>
+  <si>
+    <t>07-10-2023</t>
+  </si>
+  <si>
+    <t>10-10-2023</t>
+  </si>
+  <si>
+    <t>12-10-2023</t>
+  </si>
+  <si>
+    <t>13-10-2023</t>
   </si>
 </sst>
 </file>
@@ -650,26 +881,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,84 +938,93 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F2">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>52500</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4725</v>
+      </c>
+      <c r="J2">
+        <v>4725</v>
+      </c>
+      <c r="K2">
+        <v>61950</v>
       </c>
       <c r="L2">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>148680</v>
+      </c>
+      <c r="H3">
+        <v>26762.4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>175442</v>
       </c>
       <c r="L3">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>-0.3999999999941792</v>
+      </c>
+      <c r="M3">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -791,37 +1032,40 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F4">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>55380</v>
+      </c>
+      <c r="H4">
+        <v>9968.4</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>65348</v>
       </c>
       <c r="L4">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-0.4000000000014552</v>
+      </c>
+      <c r="M4">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -829,113 +1073,122 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>40870</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3678.3</v>
+      </c>
+      <c r="J5">
+        <v>3678.3</v>
+      </c>
+      <c r="K5">
+        <v>48227</v>
       </c>
       <c r="L5">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M5">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
+      <c r="G6">
+        <v>360000</v>
+      </c>
+      <c r="H6">
+        <v>64800</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>424800</v>
       </c>
       <c r="L6">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="G7">
+        <v>86315</v>
+      </c>
+      <c r="H7">
+        <v>15536.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>101852</v>
       </c>
       <c r="L7">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3000000000029104</v>
+      </c>
+      <c r="M7">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -943,265 +1196,286 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F8">
-        <v>183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>163550</v>
+      </c>
+      <c r="H8">
+        <v>29439</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>192989</v>
       </c>
       <c r="L8">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <v>153350</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>13801.5</v>
+      </c>
+      <c r="J9">
+        <v>13801.5</v>
+      </c>
+      <c r="K9">
+        <v>180953</v>
       </c>
       <c r="L9">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>151320</v>
+      </c>
+      <c r="H10">
+        <v>27237.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>178558</v>
       </c>
       <c r="L10">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M10">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="G11">
+        <v>113832</v>
+      </c>
+      <c r="H11">
+        <v>20489.76</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>134322</v>
       </c>
       <c r="L11">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2399999999906868</v>
+      </c>
+      <c r="M11">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F12">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>360000</v>
+      </c>
+      <c r="H12">
+        <v>64800</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>424800</v>
       </c>
       <c r="L12">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F13">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" t="s">
-        <v>88</v>
+        <v>132</v>
+      </c>
+      <c r="G13">
+        <v>33000</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2970</v>
+      </c>
+      <c r="J13">
+        <v>2970</v>
+      </c>
+      <c r="K13">
+        <v>38940</v>
       </c>
       <c r="L13">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F14">
-        <v>130</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>32395</v>
+      </c>
+      <c r="H14">
+        <v>5831.1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>38226</v>
       </c>
       <c r="L14">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>-0.09999999999854481</v>
+      </c>
+      <c r="M14">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1209,55 +1483,2525 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>360000</v>
+      </c>
+      <c r="H15">
+        <v>64800</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>424800</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>108640</v>
+      </c>
+      <c r="H16">
+        <v>19555.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>128195</v>
+      </c>
+      <c r="L16">
+        <v>-0.1999999999970896</v>
+      </c>
+      <c r="M16">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17">
+        <v>183</v>
+      </c>
+      <c r="G17">
+        <v>45750</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4117.5</v>
+      </c>
+      <c r="J17">
+        <v>4117.5</v>
+      </c>
+      <c r="K17">
+        <v>53985</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>120000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>10800</v>
+      </c>
+      <c r="J18">
+        <v>10800</v>
+      </c>
+      <c r="K18">
+        <v>141600</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>10230</v>
+      </c>
+      <c r="H19">
+        <v>1841.4</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>12071</v>
+      </c>
+      <c r="L19">
+        <v>-0.3999999999996362</v>
+      </c>
+      <c r="M19">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20">
+        <v>116</v>
+      </c>
+      <c r="G20">
+        <v>164140</v>
+      </c>
+      <c r="H20">
+        <v>29545.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>193685</v>
+      </c>
+      <c r="L20">
+        <v>-0.2000000000116415</v>
+      </c>
+      <c r="M20">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <v>73840</v>
+      </c>
+      <c r="H21">
+        <v>13291.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>87131</v>
+      </c>
+      <c r="L21">
+        <v>-0.1999999999970896</v>
+      </c>
+      <c r="M21">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>33456</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3011.04</v>
+      </c>
+      <c r="J22">
+        <v>3011.04</v>
+      </c>
+      <c r="K22">
+        <v>39478</v>
+      </c>
+      <c r="L22">
+        <v>-0.08000000000174623</v>
+      </c>
+      <c r="M22">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23">
+        <v>130</v>
+      </c>
+      <c r="G23">
+        <v>159120</v>
+      </c>
+      <c r="H23">
+        <v>28641.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>187762</v>
+      </c>
+      <c r="L23">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M23">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24">
+        <v>96</v>
+      </c>
+      <c r="G24">
+        <v>115200</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>10368</v>
+      </c>
+      <c r="J24">
+        <v>10368</v>
+      </c>
+      <c r="K24">
+        <v>135936</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>33456</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3011.04</v>
+      </c>
+      <c r="J25">
+        <v>3011.04</v>
+      </c>
+      <c r="K25">
+        <v>39478</v>
+      </c>
+      <c r="L25">
+        <v>-0.08000000000174623</v>
+      </c>
+      <c r="M25">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>134708</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>12123.72</v>
+      </c>
+      <c r="J26">
+        <v>12123.72</v>
+      </c>
+      <c r="K26">
+        <v>158955</v>
+      </c>
+      <c r="L26">
+        <v>-0.4400000000023283</v>
+      </c>
+      <c r="M26">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>259800</v>
+      </c>
+      <c r="H27">
+        <v>46764</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>306564</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>3532</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>317.88</v>
+      </c>
+      <c r="J28">
+        <v>317.88</v>
+      </c>
+      <c r="K28">
+        <v>4168</v>
+      </c>
+      <c r="L28">
+        <v>0.2399999999997817</v>
+      </c>
+      <c r="M28">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29">
+        <v>96</v>
+      </c>
+      <c r="G29">
+        <v>66912</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6022.08</v>
+      </c>
+      <c r="J29">
+        <v>6022.08</v>
+      </c>
+      <c r="K29">
+        <v>78956</v>
+      </c>
+      <c r="L29">
+        <v>-0.1600000000034925</v>
+      </c>
+      <c r="M29">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>136</v>
+      </c>
+      <c r="G30">
+        <v>193120</v>
+      </c>
+      <c r="H30">
+        <v>34761.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>227882</v>
+      </c>
+      <c r="L30">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M30">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <v>144</v>
+      </c>
+      <c r="G31">
+        <v>100368</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>9033.120000000001</v>
+      </c>
+      <c r="J31">
+        <v>9033.120000000001</v>
+      </c>
+      <c r="K31">
+        <v>118434</v>
+      </c>
+      <c r="L31">
+        <v>-0.2399999999906868</v>
+      </c>
+      <c r="M31">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32">
+        <v>93</v>
+      </c>
+      <c r="G32">
+        <v>131595</v>
+      </c>
+      <c r="H32">
+        <v>23687.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>155282</v>
+      </c>
+      <c r="L32">
+        <v>-0.1000000000058208</v>
+      </c>
+      <c r="M32">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>432000</v>
+      </c>
+      <c r="H33">
+        <v>77760</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>509760</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>360000</v>
+      </c>
+      <c r="H34">
+        <v>64800</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>424800</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>67500</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>6075</v>
+      </c>
+      <c r="J35">
+        <v>6075</v>
+      </c>
+      <c r="K35">
+        <v>79650</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36">
+        <v>296</v>
+      </c>
+      <c r="G36">
+        <v>115664</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>10409.76</v>
+      </c>
+      <c r="J36">
+        <v>10409.76</v>
+      </c>
+      <c r="K36">
+        <v>136484</v>
+      </c>
+      <c r="L36">
+        <v>0.4800000000104774</v>
+      </c>
+      <c r="M36">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>7100</v>
+      </c>
+      <c r="H37">
+        <v>1278</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>8378</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38">
+        <v>62</v>
+      </c>
+      <c r="G38">
+        <v>183980</v>
+      </c>
+      <c r="H38">
+        <v>33116.4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>217096</v>
+      </c>
+      <c r="L38">
+        <v>-0.3999999999941792</v>
+      </c>
+      <c r="M38">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39">
+        <v>279</v>
+      </c>
+      <c r="G39">
+        <v>109745</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>9877.049999999999</v>
+      </c>
+      <c r="J39">
+        <v>9877.049999999999</v>
+      </c>
+      <c r="K39">
+        <v>129499</v>
+      </c>
+      <c r="L39">
+        <v>-0.1000000000058208</v>
+      </c>
+      <c r="M39">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40">
+        <v>21</v>
+      </c>
+      <c r="G40">
+        <v>81480</v>
+      </c>
+      <c r="H40">
+        <v>14666.4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>96146</v>
+      </c>
+      <c r="L40">
+        <v>-0.3999999999941792</v>
+      </c>
+      <c r="M40">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>46860</v>
+      </c>
+      <c r="H41">
+        <v>8434.799999999999</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>55295</v>
+      </c>
+      <c r="L41">
+        <v>0.1999999999970896</v>
+      </c>
+      <c r="M41">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <v>73840</v>
+      </c>
+      <c r="H42">
+        <v>13291.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>87131</v>
+      </c>
+      <c r="L42">
+        <v>-0.1999999999970896</v>
+      </c>
+      <c r="M42">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>3532</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>317.88</v>
+      </c>
+      <c r="J43">
+        <v>317.88</v>
+      </c>
+      <c r="K43">
+        <v>4168</v>
+      </c>
+      <c r="L43">
+        <v>0.2399999999997817</v>
+      </c>
+      <c r="M43">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>702000</v>
+      </c>
+      <c r="H44">
+        <v>126360</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>828360</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>216000</v>
+      </c>
+      <c r="H45">
+        <v>38880</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>254880</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46">
+        <v>123</v>
+      </c>
+      <c r="G46">
+        <v>326760</v>
+      </c>
+      <c r="H46">
+        <v>58816.8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>385577</v>
+      </c>
+      <c r="L46">
+        <v>0.2000000000116415</v>
+      </c>
+      <c r="M46">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47">
+        <v>150</v>
+      </c>
+      <c r="G47">
+        <v>37500</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>3375</v>
+      </c>
+      <c r="J47">
+        <v>3375</v>
+      </c>
+      <c r="K47">
+        <v>44250</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="F15">
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>93120</v>
+      </c>
+      <c r="H48">
+        <v>16761.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>109882</v>
+      </c>
+      <c r="L48">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M48">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49">
+        <v>26</v>
+      </c>
+      <c r="G49">
+        <v>468000</v>
+      </c>
+      <c r="H49">
+        <v>84240</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>552240</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50">
+        <v>52</v>
+      </c>
+      <c r="G50">
+        <v>88600</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>7974</v>
+      </c>
+      <c r="J50">
+        <v>7974</v>
+      </c>
+      <c r="K50">
+        <v>104548</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51">
+        <v>136</v>
+      </c>
+      <c r="G51">
+        <v>75243</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>6771.87</v>
+      </c>
+      <c r="J51">
+        <v>6771.87</v>
+      </c>
+      <c r="K51">
+        <v>88787</v>
+      </c>
+      <c r="L51">
+        <v>0.2600000000093132</v>
+      </c>
+      <c r="M51">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52">
+        <v>191</v>
+      </c>
+      <c r="G52">
+        <v>129409</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>11646.81</v>
+      </c>
+      <c r="J52">
+        <v>11646.81</v>
+      </c>
+      <c r="K52">
+        <v>152703</v>
+      </c>
+      <c r="L52">
+        <v>0.3800000000046566</v>
+      </c>
+      <c r="M52">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>540000</v>
+      </c>
+      <c r="H53">
+        <v>97200</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>637200</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>9295</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>836.55</v>
+      </c>
+      <c r="J54">
+        <v>836.55</v>
+      </c>
+      <c r="K54">
+        <v>10968</v>
+      </c>
+      <c r="L54">
+        <v>-0.09999999999854481</v>
+      </c>
+      <c r="M54">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55">
+        <v>292</v>
+      </c>
+      <c r="G55">
+        <v>517155</v>
+      </c>
+      <c r="H55">
+        <v>93095.10000000001</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>610250</v>
+      </c>
+      <c r="L55">
+        <v>-0.09999999997671694</v>
+      </c>
+      <c r="M55">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>33960</v>
+      </c>
+      <c r="H56">
+        <v>6112.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>40073</v>
+      </c>
+      <c r="L56">
+        <v>0.1999999999970896</v>
+      </c>
+      <c r="M56">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57">
+        <v>299</v>
+      </c>
+      <c r="G57">
+        <v>74750</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>6727.5</v>
+      </c>
+      <c r="J57">
+        <v>6727.5</v>
+      </c>
+      <c r="K57">
+        <v>88205</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58">
+        <v>192</v>
+      </c>
+      <c r="G58">
+        <v>132576</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>11931.84</v>
+      </c>
+      <c r="J58">
+        <v>11931.84</v>
+      </c>
+      <c r="K58">
+        <v>156440</v>
+      </c>
+      <c r="L58">
+        <v>0.3200000000069849</v>
+      </c>
+      <c r="M58">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59">
+        <v>60</v>
+      </c>
+      <c r="G59">
+        <v>85200</v>
+      </c>
+      <c r="H59">
+        <v>15336</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>100536</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>153</v>
+      </c>
+      <c r="F60">
+        <v>32</v>
+      </c>
+      <c r="G60">
+        <v>576000</v>
+      </c>
+      <c r="H60">
+        <v>103680</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>679680</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61">
+        <v>123</v>
+      </c>
+      <c r="G61">
+        <v>166920</v>
+      </c>
+      <c r="H61">
+        <v>30045.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>196966</v>
+      </c>
+      <c r="L61">
+        <v>0.3999999999941792</v>
+      </c>
+      <c r="M61">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62">
+        <v>95</v>
+      </c>
+      <c r="G62">
+        <v>134900</v>
+      </c>
+      <c r="H62">
+        <v>24282</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>159182</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63">
         <v>96</v>
       </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G63">
+        <v>65664</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>5909.76</v>
+      </c>
+      <c r="J63">
+        <v>5909.76</v>
+      </c>
+      <c r="K63">
+        <v>77484</v>
+      </c>
+      <c r="L63">
+        <v>0.4800000000104774</v>
+      </c>
+      <c r="M63">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64">
+        <v>88</v>
+      </c>
+      <c r="G64">
+        <v>124960</v>
+      </c>
+      <c r="H64">
+        <v>22493</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>147453</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65">
+        <v>144</v>
+      </c>
+      <c r="G65">
+        <v>97872</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>8808.48</v>
+      </c>
+      <c r="J65">
+        <v>8808.48</v>
+      </c>
+      <c r="K65">
+        <v>115489</v>
+      </c>
+      <c r="L65">
+        <v>0.04000000000814907</v>
+      </c>
+      <c r="M65">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66">
+        <v>150</v>
+      </c>
+      <c r="G66">
+        <v>37500</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>3375</v>
+      </c>
+      <c r="J66">
+        <v>3375</v>
+      </c>
+      <c r="K66">
+        <v>44250</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F67">
+        <v>203</v>
+      </c>
+      <c r="G67">
+        <v>538040</v>
+      </c>
+      <c r="H67">
+        <v>96847.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>634887</v>
+      </c>
+      <c r="L67">
+        <v>-0.1999999999534339</v>
+      </c>
+      <c r="M67">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1729603</v>
-      </c>
-      <c r="H16" s="2">
-        <v>31266.54</v>
-      </c>
-      <c r="I16" s="2">
-        <v>31266.54</v>
-      </c>
-      <c r="J16" s="2">
-        <v>248795.46</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2040931.54</v>
-      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68">
+        <v>44</v>
+      </c>
+      <c r="G68">
+        <v>792000</v>
+      </c>
+      <c r="H68">
+        <v>142560</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>934560</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69">
+        <v>42</v>
+      </c>
+      <c r="G69">
+        <v>756000</v>
+      </c>
+      <c r="H69">
+        <v>136080</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>892080</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70">
+        <v>146</v>
+      </c>
+      <c r="G70">
+        <v>36500</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>3285</v>
+      </c>
+      <c r="J70">
+        <v>3285</v>
+      </c>
+      <c r="K70">
+        <v>43070</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71">
+        <v>186</v>
+      </c>
+      <c r="G71">
+        <v>242990</v>
+      </c>
+      <c r="H71">
+        <v>43738</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>286728</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72">
+        <v>95</v>
+      </c>
+      <c r="G72">
+        <v>66215</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>5959.35</v>
+      </c>
+      <c r="J72">
+        <v>5959.35</v>
+      </c>
+      <c r="K72">
+        <v>78134</v>
+      </c>
+      <c r="L72">
+        <v>0.2999999999883585</v>
+      </c>
+      <c r="M72">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>112500</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>10125</v>
+      </c>
+      <c r="J73">
+        <v>10125</v>
+      </c>
+      <c r="K73">
+        <v>132750</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>61200</v>
+      </c>
+      <c r="H74">
+        <v>11016</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>72216</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F75">
+        <v>174</v>
+      </c>
+      <c r="G75">
+        <v>227305.6</v>
+      </c>
+      <c r="H75">
+        <v>40915.01</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>268221</v>
+      </c>
+      <c r="L75">
+        <v>0.3900000000139698</v>
+      </c>
+      <c r="M75">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>12912894.6</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1929558.17</v>
+      </c>
+      <c r="I76" s="2">
+        <v>197385.03</v>
+      </c>
+      <c r="J76" s="2">
+        <v>197385.03</v>
+      </c>
+      <c r="K76" s="2">
+        <v>15237223</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1018,7 +1018,7 @@
         <v>175442</v>
       </c>
       <c r="L3">
-        <v>-0.3999999999941792</v>
+        <v>-0.4</v>
       </c>
       <c r="M3">
         <v>9988</v>
@@ -1059,7 +1059,7 @@
         <v>65348</v>
       </c>
       <c r="L4">
-        <v>-0.4000000000014552</v>
+        <v>-0.4</v>
       </c>
       <c r="M4">
         <v>9988</v>
@@ -1100,7 +1100,7 @@
         <v>48227</v>
       </c>
       <c r="L5">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M5">
         <v>9988</v>
@@ -1182,7 +1182,7 @@
         <v>101852</v>
       </c>
       <c r="L7">
-        <v>0.3000000000029104</v>
+        <v>0.3</v>
       </c>
       <c r="M7">
         <v>9988</v>
@@ -1305,7 +1305,7 @@
         <v>178558</v>
       </c>
       <c r="L10">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M10">
         <v>9988</v>
@@ -1346,7 +1346,7 @@
         <v>134322</v>
       </c>
       <c r="L11">
-        <v>0.2399999999906868</v>
+        <v>0.24</v>
       </c>
       <c r="M11">
         <v>9988</v>
@@ -1469,7 +1469,7 @@
         <v>38226</v>
       </c>
       <c r="L14">
-        <v>-0.09999999999854481</v>
+        <v>-0.1</v>
       </c>
       <c r="M14">
         <v>9988</v>
@@ -1551,7 +1551,7 @@
         <v>128195</v>
       </c>
       <c r="L16">
-        <v>-0.1999999999970896</v>
+        <v>-0.2</v>
       </c>
       <c r="M16">
         <v>9988</v>
@@ -1674,7 +1674,7 @@
         <v>12071</v>
       </c>
       <c r="L19">
-        <v>-0.3999999999996362</v>
+        <v>-0.4</v>
       </c>
       <c r="M19">
         <v>9988</v>
@@ -1715,7 +1715,7 @@
         <v>193685</v>
       </c>
       <c r="L20">
-        <v>-0.2000000000116415</v>
+        <v>-0.2</v>
       </c>
       <c r="M20">
         <v>9988</v>
@@ -1756,7 +1756,7 @@
         <v>87131</v>
       </c>
       <c r="L21">
-        <v>-0.1999999999970896</v>
+        <v>-0.2</v>
       </c>
       <c r="M21">
         <v>9988</v>
@@ -1797,7 +1797,7 @@
         <v>39478</v>
       </c>
       <c r="L22">
-        <v>-0.08000000000174623</v>
+        <v>-0.08</v>
       </c>
       <c r="M22">
         <v>9988</v>
@@ -1838,7 +1838,7 @@
         <v>187762</v>
       </c>
       <c r="L23">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M23">
         <v>9988</v>
@@ -1920,7 +1920,7 @@
         <v>39478</v>
       </c>
       <c r="L25">
-        <v>-0.08000000000174623</v>
+        <v>-0.08</v>
       </c>
       <c r="M25">
         <v>9988</v>
@@ -1961,7 +1961,7 @@
         <v>158955</v>
       </c>
       <c r="L26">
-        <v>-0.4400000000023283</v>
+        <v>-0.44</v>
       </c>
       <c r="M26">
         <v>9988</v>
@@ -2043,7 +2043,7 @@
         <v>4168</v>
       </c>
       <c r="L28">
-        <v>0.2399999999997817</v>
+        <v>0.24</v>
       </c>
       <c r="M28">
         <v>9988</v>
@@ -2084,7 +2084,7 @@
         <v>78956</v>
       </c>
       <c r="L29">
-        <v>-0.1600000000034925</v>
+        <v>-0.16</v>
       </c>
       <c r="M29">
         <v>9988</v>
@@ -2125,7 +2125,7 @@
         <v>227882</v>
       </c>
       <c r="L30">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M30">
         <v>9988</v>
@@ -2166,7 +2166,7 @@
         <v>118434</v>
       </c>
       <c r="L31">
-        <v>-0.2399999999906868</v>
+        <v>-0.24</v>
       </c>
       <c r="M31">
         <v>9988</v>
@@ -2207,7 +2207,7 @@
         <v>155282</v>
       </c>
       <c r="L32">
-        <v>-0.1000000000058208</v>
+        <v>-0.1</v>
       </c>
       <c r="M32">
         <v>9988</v>
@@ -2371,7 +2371,7 @@
         <v>136484</v>
       </c>
       <c r="L36">
-        <v>0.4800000000104774</v>
+        <v>0.48</v>
       </c>
       <c r="M36">
         <v>9988</v>
@@ -2453,7 +2453,7 @@
         <v>217096</v>
       </c>
       <c r="L38">
-        <v>-0.3999999999941792</v>
+        <v>-0.4</v>
       </c>
       <c r="M38">
         <v>9988</v>
@@ -2494,7 +2494,7 @@
         <v>129499</v>
       </c>
       <c r="L39">
-        <v>-0.1000000000058208</v>
+        <v>-0.1</v>
       </c>
       <c r="M39">
         <v>9988</v>
@@ -2535,7 +2535,7 @@
         <v>96146</v>
       </c>
       <c r="L40">
-        <v>-0.3999999999941792</v>
+        <v>-0.4</v>
       </c>
       <c r="M40">
         <v>9988</v>
@@ -2576,7 +2576,7 @@
         <v>55295</v>
       </c>
       <c r="L41">
-        <v>0.1999999999970896</v>
+        <v>0.2</v>
       </c>
       <c r="M41">
         <v>9988</v>
@@ -2617,7 +2617,7 @@
         <v>87131</v>
       </c>
       <c r="L42">
-        <v>-0.1999999999970896</v>
+        <v>-0.2</v>
       </c>
       <c r="M42">
         <v>9988</v>
@@ -2658,7 +2658,7 @@
         <v>4168</v>
       </c>
       <c r="L43">
-        <v>0.2399999999997817</v>
+        <v>0.24</v>
       </c>
       <c r="M43">
         <v>9988</v>
@@ -2781,7 +2781,7 @@
         <v>385577</v>
       </c>
       <c r="L46">
-        <v>0.2000000000116415</v>
+        <v>0.2</v>
       </c>
       <c r="M46">
         <v>9988</v>
@@ -2863,7 +2863,7 @@
         <v>109882</v>
       </c>
       <c r="L48">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M48">
         <v>9988</v>
@@ -2986,7 +2986,7 @@
         <v>88787</v>
       </c>
       <c r="L51">
-        <v>0.2600000000093132</v>
+        <v>0.26</v>
       </c>
       <c r="M51">
         <v>9988</v>
@@ -3027,7 +3027,7 @@
         <v>152703</v>
       </c>
       <c r="L52">
-        <v>0.3800000000046566</v>
+        <v>0.38</v>
       </c>
       <c r="M52">
         <v>9988</v>
@@ -3109,7 +3109,7 @@
         <v>10968</v>
       </c>
       <c r="L54">
-        <v>-0.09999999999854481</v>
+        <v>-0.1</v>
       </c>
       <c r="M54">
         <v>9988</v>
@@ -3150,7 +3150,7 @@
         <v>610250</v>
       </c>
       <c r="L55">
-        <v>-0.09999999997671694</v>
+        <v>-0.1</v>
       </c>
       <c r="M55">
         <v>9988</v>
@@ -3191,7 +3191,7 @@
         <v>40073</v>
       </c>
       <c r="L56">
-        <v>0.1999999999970896</v>
+        <v>0.2</v>
       </c>
       <c r="M56">
         <v>9988</v>
@@ -3273,7 +3273,7 @@
         <v>156440</v>
       </c>
       <c r="L58">
-        <v>0.3200000000069849</v>
+        <v>0.32</v>
       </c>
       <c r="M58">
         <v>9988</v>
@@ -3396,7 +3396,7 @@
         <v>196966</v>
       </c>
       <c r="L61">
-        <v>0.3999999999941792</v>
+        <v>0.4</v>
       </c>
       <c r="M61">
         <v>9988</v>
@@ -3478,7 +3478,7 @@
         <v>77484</v>
       </c>
       <c r="L63">
-        <v>0.4800000000104774</v>
+        <v>0.48</v>
       </c>
       <c r="M63">
         <v>9988</v>
@@ -3560,7 +3560,7 @@
         <v>115489</v>
       </c>
       <c r="L65">
-        <v>0.04000000000814907</v>
+        <v>0.04</v>
       </c>
       <c r="M65">
         <v>9988</v>
@@ -3642,7 +3642,7 @@
         <v>634887</v>
       </c>
       <c r="L67">
-        <v>-0.1999999999534339</v>
+        <v>-0.2</v>
       </c>
       <c r="M67">
         <v>9988</v>
@@ -3847,7 +3847,7 @@
         <v>78134</v>
       </c>
       <c r="L72">
-        <v>0.2999999999883585</v>
+        <v>0.3</v>
       </c>
       <c r="M72">
         <v>9988</v>
@@ -3970,7 +3970,7 @@
         <v>268221</v>
       </c>
       <c r="L75">
-        <v>0.3900000000139698</v>
+        <v>0.39</v>
       </c>
       <c r="M75">
         <v>9988</v>
